--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1531">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6639,9 +6639,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>鲸币宝箱抽奖券,</t>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6701,6 +6698,14 @@
       </rPr>
       <t>" }</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9472,11 +9477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM420"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V401" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA416" sqref="AA416"/>
+      <selection pane="bottomRight" activeCell="B415" sqref="B415:B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31885,7 +31890,7 @@
         <v>1299</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1267</v>
+        <v>1529</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -35680,7 +35685,7 @@
         <v>600</v>
       </c>
       <c r="P414" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="Q414" s="10" t="s">
         <v>1515</v>
@@ -35727,7 +35732,7 @@
         <v>1519</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -35748,10 +35753,10 @@
         <v>1275</v>
       </c>
       <c r="Q415" s="49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="V415" s="6" t="s">
         <v>1525</v>
-      </c>
-      <c r="V415" s="6" t="s">
-        <v>1526</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>121</v>
@@ -35795,7 +35800,7 @@
         <v>1520</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -35816,10 +35821,10 @@
         <v>1276</v>
       </c>
       <c r="Q416" s="49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="V416" s="6" t="s">
         <v>1525</v>
-      </c>
-      <c r="V416" s="6" t="s">
-        <v>1526</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>121</v>
@@ -35863,7 +35868,7 @@
         <v>1520</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -35884,7 +35889,7 @@
         <v>1277</v>
       </c>
       <c r="Q417" s="49" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="V417" s="6" t="s">
         <v>1284</v>
@@ -35931,7 +35936,7 @@
         <v>1521</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -35952,7 +35957,7 @@
         <v>1278</v>
       </c>
       <c r="Q418" s="49" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1284</v>
@@ -35999,7 +36004,7 @@
         <v>1521</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36020,7 +36025,7 @@
         <v>1279</v>
       </c>
       <c r="Q419" s="49" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1284</v>
@@ -36067,7 +36072,7 @@
         <v>1521</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36088,7 +36093,7 @@
         <v>1280</v>
       </c>
       <c r="Q420" s="49" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1284</v>
@@ -36130,7 +36135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -36836,7 +36841,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -36850,7 +36855,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -36864,7 +36869,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="1535">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6706,6 +6706,22 @@
   </si>
   <si>
     <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","5话费碎片","30～1000福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{40,50,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9475,13 +9491,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM420"/>
+  <dimension ref="A1:AM421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H395" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AD413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B415" sqref="B415:B420"/>
+      <selection pane="bottomRight" activeCell="AJ421" sqref="AJ421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36120,6 +36136,74 @@
         <v>1</v>
       </c>
       <c r="AL420" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="19">
+        <v>420</v>
+      </c>
+      <c r="B421" s="19">
+        <v>10337</v>
+      </c>
+      <c r="F421" s="19">
+        <v>1</v>
+      </c>
+      <c r="G421" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I421" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K421" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L421" s="19">
+        <v>0</v>
+      </c>
+      <c r="M421" s="19">
+        <v>0</v>
+      </c>
+      <c r="N421" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="O421" s="19">
+        <v>1000</v>
+      </c>
+      <c r="P421" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q421" s="40" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V421" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="W421" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X421" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y421" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AA421" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AB421" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AG421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1549">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6551,30 +6551,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,3000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6636,17 +6612,6 @@
   </si>
   <si>
     <t>（v4-v10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>1,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6721,7 +6686,111 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "xrzx_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{40,50,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100000,140000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{300000,400000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{650000,850000,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9491,13 +9560,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM421"/>
+  <dimension ref="A1:AM424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AD413" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ421" sqref="AJ421"/>
+      <selection pane="bottomRight" activeCell="Y423" sqref="Y423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13870,7 +13939,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13891,7 +13960,7 @@
         <v>1450</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>550</v>
@@ -13926,7 +13995,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -31906,7 +31975,7 @@
         <v>1299</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33062,7 +33131,7 @@
         <v>1367</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1362</v>
@@ -35314,10 +35383,10 @@
         <v>1499</v>
       </c>
       <c r="Q408" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V408" s="5" t="s">
         <v>1500</v>
-      </c>
-      <c r="V408" s="5" t="s">
-        <v>1506</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -35379,10 +35448,10 @@
         <v>1499</v>
       </c>
       <c r="Q409" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="V409" s="5" t="s">
         <v>1501</v>
-      </c>
-      <c r="V409" s="5" t="s">
-        <v>1507</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -35444,10 +35513,10 @@
         <v>1499</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>1502</v>
+        <v>1447</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -35509,10 +35578,10 @@
         <v>1499</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1503</v>
+        <v>1446</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -35574,10 +35643,10 @@
         <v>1499</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1504</v>
+        <v>1445</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -35639,10 +35708,10 @@
         <v>1499</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1505</v>
+        <v>1444</v>
       </c>
       <c r="V413" s="5" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -35683,7 +35752,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -35701,13 +35770,13 @@
         <v>600</v>
       </c>
       <c r="P414" s="5" t="s">
-        <v>1522</v>
+        <v>461</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>550</v>
+        <v>1533</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>121</v>
@@ -35742,13 +35811,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -35769,10 +35838,10 @@
         <v>1275</v>
       </c>
       <c r="Q415" s="49" t="s">
-        <v>1524</v>
+        <v>1268</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>121</v>
@@ -35810,13 +35879,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -35837,10 +35906,10 @@
         <v>1276</v>
       </c>
       <c r="Q416" s="49" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>121</v>
@@ -35878,13 +35947,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -35905,7 +35974,7 @@
         <v>1277</v>
       </c>
       <c r="Q417" s="49" t="s">
-        <v>1524</v>
+        <v>1268</v>
       </c>
       <c r="V417" s="6" t="s">
         <v>1284</v>
@@ -35946,13 +36015,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H418" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I418" s="6" t="s">
         <v>1521</v>
-      </c>
-      <c r="I418" s="6" t="s">
-        <v>1530</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -35973,7 +36042,7 @@
         <v>1278</v>
       </c>
       <c r="Q418" s="49" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1284</v>
@@ -36014,13 +36083,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H419" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I419" s="6" t="s">
         <v>1521</v>
-      </c>
-      <c r="I419" s="6" t="s">
-        <v>1530</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36041,7 +36110,7 @@
         <v>1279</v>
       </c>
       <c r="Q419" s="49" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1284</v>
@@ -36082,13 +36151,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H420" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I420" s="6" t="s">
         <v>1521</v>
-      </c>
-      <c r="I420" s="6" t="s">
-        <v>1530</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36109,7 +36178,7 @@
         <v>1280</v>
       </c>
       <c r="Q420" s="49" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1284</v>
@@ -36150,10 +36219,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36171,10 +36240,10 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>505</v>
+        <v>1543</v>
       </c>
       <c r="Q421" s="40" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="V421" s="19" t="s">
         <v>550</v>
@@ -36192,7 +36261,7 @@
         <v>1181</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36204,6 +36273,228 @@
         <v>1</v>
       </c>
       <c r="AL421" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A422" s="6">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5">
+        <v>10338</v>
+      </c>
+      <c r="F422" s="6">
+        <v>1</v>
+      </c>
+      <c r="G422" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H422" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I422" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K422" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="6">
+        <v>0</v>
+      </c>
+      <c r="M422" s="6">
+        <v>0</v>
+      </c>
+      <c r="N422" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O422" s="6">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q422" s="49" t="s">
+        <v>1540</v>
+      </c>
+      <c r="V422" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W422" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="6">
+        <v>51</v>
+      </c>
+      <c r="AA422" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AB422" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AG422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A423" s="6">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="6">
+        <v>1</v>
+      </c>
+      <c r="G423" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H423" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I423" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K423" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L423" s="6">
+        <v>0</v>
+      </c>
+      <c r="M423" s="6">
+        <v>0</v>
+      </c>
+      <c r="N423" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O423" s="6">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q423" s="49" t="s">
+        <v>1541</v>
+      </c>
+      <c r="V423" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W423" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="X423" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y423" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="6">
+        <v>51</v>
+      </c>
+      <c r="AA423" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AB423" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AG423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A424" s="6">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="6">
+        <v>1</v>
+      </c>
+      <c r="G424" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H424" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K424" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L424" s="6">
+        <v>0</v>
+      </c>
+      <c r="M424" s="6">
+        <v>0</v>
+      </c>
+      <c r="N424" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O424" s="6">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q424" s="49" t="s">
+        <v>1542</v>
+      </c>
+      <c r="V424" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W424" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="X424" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y424" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="6">
+        <v>51</v>
+      </c>
+      <c r="AA424" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AB424" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="6">
         <v>1</v>
       </c>
     </row>
@@ -36217,10 +36508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36925,7 +37216,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -36939,7 +37230,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -36953,12 +37244,26 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>0</v>
       </c>
     </row>
@@ -38678,8 +38983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1551">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6774,10 +6774,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{40,50,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6791,6 +6787,18 @@
   </si>
   <si>
     <t>{650000,850000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9563,10 +9571,10 @@
   <dimension ref="A1:AM424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V397" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Z403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y423" sqref="Y423"/>
+      <selection pane="bottomRight" activeCell="Z424" sqref="Z424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36246,7 +36254,7 @@
         <v>1524</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>550</v>
+        <v>1548</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36261,7 +36269,7 @@
         <v>1181</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36317,7 +36325,7 @@
         <v>1540</v>
       </c>
       <c r="V422" s="6" t="s">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="W422" s="6">
         <v>99999999</v>
@@ -36332,10 +36340,10 @@
         <v>51</v>
       </c>
       <c r="AA422" s="6" t="s">
-        <v>1544</v>
+        <v>461</v>
       </c>
       <c r="AB422" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="AG422" s="6">
         <v>1</v>
@@ -36406,10 +36414,10 @@
         <v>51</v>
       </c>
       <c r="AA423" s="6" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="AB423" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="AG423" s="6">
         <v>1</v>
@@ -36480,10 +36488,10 @@
         <v>51</v>
       </c>
       <c r="AA424" s="6" t="s">
-        <v>1544</v>
+        <v>461</v>
       </c>
       <c r="AB424" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="AG424" s="6">
         <v>1</v>
@@ -36511,7 +36519,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1567">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6799,6 +6799,70 @@
   </si>
   <si>
     <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"核能风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7595,7 +7659,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9568,13 +9632,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM424"/>
+  <dimension ref="A1:AM429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z403" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z408" sqref="Z408"/>
+      <selection pane="bottomRight" activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36506,6 +36570,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A425" s="6">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5">
+        <v>10341</v>
+      </c>
+      <c r="F425" s="6">
+        <v>1</v>
+      </c>
+      <c r="G425" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I425" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K425" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L425" s="6">
+        <v>0</v>
+      </c>
+      <c r="M425" s="6">
+        <v>0</v>
+      </c>
+      <c r="N425" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O425" s="6">
+        <v>49800</v>
+      </c>
+      <c r="P425" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Q425" s="49" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V425" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W425" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X425" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y425" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG425" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A426" s="6">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5">
+        <v>10342</v>
+      </c>
+      <c r="F426" s="6">
+        <v>1</v>
+      </c>
+      <c r="G426" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I426" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K426" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L426" s="6">
+        <v>0</v>
+      </c>
+      <c r="M426" s="6">
+        <v>0</v>
+      </c>
+      <c r="N426" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O426" s="6">
+        <v>19800</v>
+      </c>
+      <c r="P426" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q426" s="49" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V426" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W426" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X426" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y426" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG426" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH426" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A427" s="6">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5">
+        <v>10343</v>
+      </c>
+      <c r="F427" s="6">
+        <v>1</v>
+      </c>
+      <c r="G427" s="6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I427" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K427" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L427" s="6">
+        <v>0</v>
+      </c>
+      <c r="M427" s="6">
+        <v>0</v>
+      </c>
+      <c r="N427" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O427" s="6">
+        <v>9800</v>
+      </c>
+      <c r="P427" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Q427" s="49" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V427" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W427" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X427" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y427" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG427" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A428" s="6">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5">
+        <v>10344</v>
+      </c>
+      <c r="F428" s="6">
+        <v>1</v>
+      </c>
+      <c r="G428" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I428" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K428" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L428" s="6">
+        <v>0</v>
+      </c>
+      <c r="M428" s="6">
+        <v>0</v>
+      </c>
+      <c r="N428" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O428" s="6">
+        <v>9800</v>
+      </c>
+      <c r="P428" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Q428" s="49" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V428" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W428" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X428" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y428" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG428" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH428" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A429" s="6">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5">
+        <v>10345</v>
+      </c>
+      <c r="F429" s="6">
+        <v>1</v>
+      </c>
+      <c r="G429" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I429" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K429" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L429" s="6">
+        <v>0</v>
+      </c>
+      <c r="M429" s="6">
+        <v>0</v>
+      </c>
+      <c r="N429" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O429" s="6">
+        <v>4800</v>
+      </c>
+      <c r="P429" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Q429" s="49" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V429" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W429" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X429" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y429" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG429" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH429" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36518,7 +36862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -38992,7 +39336,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39426,7 +39770,7 @@
         <v>9999999</v>
       </c>
       <c r="O8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="17">
         <v>5</v>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="1582">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6875,6 +6875,65 @@
   </si>
   <si>
     <t>0,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>900000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>800000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9644,13 +9703,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM429"/>
+  <dimension ref="A1:AM433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="P409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q428" sqref="Q428"/>
+      <selection pane="bottomRight" activeCell="G430" sqref="G430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36862,6 +36921,278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="6">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5">
+        <v>10346</v>
+      </c>
+      <c r="F430" s="19">
+        <v>1</v>
+      </c>
+      <c r="G430" s="19" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H430" s="19" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I430" s="19" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K430" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L430" s="19">
+        <v>0</v>
+      </c>
+      <c r="M430" s="19">
+        <v>0</v>
+      </c>
+      <c r="N430" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O430" s="19">
+        <v>100</v>
+      </c>
+      <c r="P430" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q430" s="39" t="s">
+        <v>1570</v>
+      </c>
+      <c r="V430" s="19" t="s">
+        <v>1571</v>
+      </c>
+      <c r="W430" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X430" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y430" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z430" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="6">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5">
+        <v>10347</v>
+      </c>
+      <c r="F431" s="19">
+        <v>1</v>
+      </c>
+      <c r="G431" s="19" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H431" s="19" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I431" s="19" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K431" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L431" s="19">
+        <v>0</v>
+      </c>
+      <c r="M431" s="19">
+        <v>0</v>
+      </c>
+      <c r="N431" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O431" s="19">
+        <v>300</v>
+      </c>
+      <c r="P431" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q431" s="39" t="s">
+        <v>1575</v>
+      </c>
+      <c r="V431" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W431" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X431" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y431" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z431" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="6">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5">
+        <v>10348</v>
+      </c>
+      <c r="F432" s="19">
+        <v>1</v>
+      </c>
+      <c r="G432" s="19" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H432" s="19" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I432" s="19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K432" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L432" s="19">
+        <v>0</v>
+      </c>
+      <c r="M432" s="19">
+        <v>0</v>
+      </c>
+      <c r="N432" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O432" s="19">
+        <v>600</v>
+      </c>
+      <c r="P432" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q432" s="39" t="s">
+        <v>1578</v>
+      </c>
+      <c r="V432" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W432" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X432" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y432" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z432" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="6">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5">
+        <v>10349</v>
+      </c>
+      <c r="F433" s="19">
+        <v>1</v>
+      </c>
+      <c r="G433" s="19" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H433" s="19" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I433" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K433" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L433" s="19">
+        <v>0</v>
+      </c>
+      <c r="M433" s="19">
+        <v>0</v>
+      </c>
+      <c r="N433" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O433" s="19">
+        <v>600</v>
+      </c>
+      <c r="P433" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q433" s="39" t="s">
+        <v>1581</v>
+      </c>
+      <c r="V433" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W433" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X433" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y433" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z433" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36874,7 +37205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -39347,8 +39678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9570,11 +9570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Z403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z424" sqref="Z424"/>
+      <selection pane="bottomRight" activeCell="Z408" sqref="Z408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36518,8 +36518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9635,10 +9635,10 @@
   <dimension ref="A1:AM429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D426" sqref="D426"/>
+      <selection pane="bottomRight" activeCell="X423" sqref="X423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36398,7 +36398,7 @@
         <v>1603756800</v>
       </c>
       <c r="Y422" s="6">
-        <v>0</v>
+        <v>2552233600</v>
       </c>
       <c r="Z422" s="6">
         <v>51</v>
@@ -36472,7 +36472,7 @@
         <v>1603756800</v>
       </c>
       <c r="Y423" s="6">
-        <v>0</v>
+        <v>2552233600</v>
       </c>
       <c r="Z423" s="6">
         <v>51</v>
@@ -36546,7 +36546,7 @@
         <v>1603756800</v>
       </c>
       <c r="Y424" s="6">
-        <v>0</v>
+        <v>2552233600</v>
       </c>
       <c r="Z424" s="6">
         <v>51</v>

--- a/config_10.27/shoping_config.xlsx
+++ b/config_10.27/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1566">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6726,14 +6726,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2000000,5,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6874,6 +6866,10 @@
   </si>
   <si>
     <t>sc_imgf_pt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7485,7 +7481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7606,13 +7602,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>1564</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1566</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9645,11 +9641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O412" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="P412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B427" sqref="B427:O427"/>
+      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36323,13 +36319,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="Q421" s="39" t="s">
         <v>1521</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36344,7 +36340,7 @@
         <v>1178</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36394,13 +36390,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Q422" s="48" t="s">
         <v>1535</v>
       </c>
-      <c r="Q422" s="48" t="s">
-        <v>1537</v>
-      </c>
       <c r="V422" s="6" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="W422" s="6">
         <v>99999999</v>
@@ -36418,7 +36414,7 @@
         <v>460</v>
       </c>
       <c r="AB422" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="AG422" s="6">
         <v>1</v>
@@ -36468,10 +36464,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1535</v>
+        <v>1565</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>1530</v>
@@ -36489,10 +36485,10 @@
         <v>51</v>
       </c>
       <c r="AA423" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AB423" s="6" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AG423" s="6">
         <v>1</v>
@@ -36542,10 +36538,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1536</v>
+        <v>1565</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>1530</v>
@@ -36566,7 +36562,7 @@
         <v>460</v>
       </c>
       <c r="AB424" s="6" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AG424" s="6">
         <v>1</v>
@@ -36592,10 +36588,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36613,10 +36609,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>598</v>
@@ -36648,10 +36644,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36669,10 +36665,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>598</v>
@@ -36704,10 +36700,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36725,10 +36721,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>598</v>
@@ -36760,10 +36756,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36781,10 +36777,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Q428" s="48" t="s">
         <v>1561</v>
-      </c>
-      <c r="Q428" s="48" t="s">
-        <v>1563</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>598</v>
@@ -36816,10 +36812,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36837,10 +36833,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>598</v>
